--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37140" yWindow="4080" windowWidth="102400" windowHeight="61000" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,12 @@
     <sheet name="geography" sheetId="2" r:id="rId7"/>
     <sheet name="data_ghana" sheetId="9" r:id="rId8"/>
     <sheet name="data_kenya" sheetId="10" r:id="rId9"/>
+    <sheet name="info" sheetId="11" r:id="rId10"/>
+    <sheet name="changelog" sheetId="12" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$P$41</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="402">
   <si>
     <t>label</t>
   </si>
@@ -1164,13 +1169,82 @@
   </si>
   <si>
     <t>geo_code</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>jef</t>
+  </si>
+  <si>
+    <t>meta-update</t>
+  </si>
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Left aligned.</t>
+  </si>
+  <si>
+    <t>Froze header row.</t>
+  </si>
+  <si>
+    <t>Altered column widths.</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>changelog</t>
+  </si>
+  <si>
+    <t>Created.</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Light Purple</t>
+  </si>
+  <si>
+    <t>Light Green</t>
+  </si>
+  <si>
+    <t>Light Blue</t>
+  </si>
+  <si>
+    <t>Insert meaning here.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1199,6 +1273,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1243,7 +1331,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1477,19 +1565,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1606,6 +1746,16 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1722,6 +1872,16 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2053,59 +2213,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="4"/>
-    <col min="15" max="15" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>372</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -2114,65 +2281,65 @@
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="C2">
+      <c r="C2" s="1">
         <v>101</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>376</v>
       </c>
       <c r="I2" s="4">
         <v>2013</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="C3">
+      <c r="C3" s="1">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="4">
         <v>2014</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -2181,27 +2348,27 @@
       <c r="N3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="C4">
+      <c r="C4" s="1">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="4">
         <v>2015</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -2210,27 +2377,27 @@
       <c r="N4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="C5">
+      <c r="C5" s="1">
         <v>104</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="4">
         <v>2015</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -2239,27 +2406,27 @@
       <c r="N5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6">
+      <c r="C6" s="1">
         <v>105</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="4">
         <v>2016</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>58</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -2268,27 +2435,27 @@
       <c r="N6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="C7">
+      <c r="C7" s="1">
         <v>201</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="4">
         <v>2015</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -2297,27 +2464,27 @@
       <c r="N7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="C8">
+      <c r="C8" s="1">
         <v>202</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="4">
         <v>2015</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -2326,27 +2493,27 @@
       <c r="N8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="C9">
+      <c r="C9" s="1">
         <v>203</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="4">
         <v>2016</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -2355,27 +2522,27 @@
       <c r="N9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="C10">
+      <c r="C10" s="1">
         <v>204</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="4">
         <v>2016</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -2384,30 +2551,30 @@
       <c r="N10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="C11">
+      <c r="C11" s="1">
         <v>301</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>374</v>
       </c>
       <c r="I11" s="4">
         <v>2014</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -2416,27 +2583,27 @@
       <c r="N11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="C12">
+      <c r="C12" s="1">
         <v>302</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="4">
         <v>2014</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -2445,27 +2612,27 @@
       <c r="N12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="C13">
+      <c r="C13" s="1">
         <v>303</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I13" s="4">
         <v>2015</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -2474,27 +2641,27 @@
       <c r="N13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="C14">
+      <c r="C14" s="1">
         <v>304</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="4">
         <v>2015</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -2503,27 +2670,27 @@
       <c r="N14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="C15">
+      <c r="C15" s="1">
         <v>305</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="4">
         <v>2016</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="7" t="s">
         <v>89</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -2532,27 +2699,27 @@
       <c r="N15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="C16">
+      <c r="C16" s="1">
         <v>401</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="4">
         <v>2015</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -2561,27 +2728,27 @@
       <c r="N16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:15">
-      <c r="C17">
+      <c r="C17" s="1">
         <v>402</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="4">
         <v>2016</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -2590,27 +2757,27 @@
       <c r="N17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:15">
-      <c r="C18">
+      <c r="C18" s="1">
         <v>403</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I18" s="4">
         <v>2016</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -2619,27 +2786,27 @@
       <c r="N18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="3:15">
-      <c r="C19">
+      <c r="C19" s="1">
         <v>501</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="4">
         <v>2014</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="7" t="s">
         <v>113</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -2648,27 +2815,27 @@
       <c r="N19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:15">
-      <c r="C20">
+      <c r="C20" s="1">
         <v>502</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="4">
         <v>2015</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -2677,27 +2844,27 @@
       <c r="N20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:15">
-      <c r="C21">
+      <c r="C21" s="1">
         <v>503</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="4">
         <v>2016</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="7" t="s">
         <v>119</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -2706,27 +2873,27 @@
       <c r="N21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:15">
-      <c r="C22">
+      <c r="C22" s="1">
         <v>504</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="4">
         <v>2017</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>4</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -2735,27 +2902,27 @@
       <c r="N22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23">
+      <c r="C23" s="1">
         <v>601</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="4">
         <v>2014</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="7" t="s">
         <v>130</v>
       </c>
       <c r="M23" s="4" t="s">
@@ -2764,27 +2931,27 @@
       <c r="N23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24">
+      <c r="C24" s="1">
         <v>602</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I24" s="4">
         <v>2015</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="7" t="s">
         <v>133</v>
       </c>
       <c r="M24" s="4" t="s">
@@ -2793,27 +2960,27 @@
       <c r="N24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25">
+      <c r="C25" s="1">
         <v>603</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="4">
         <v>2015</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="7" t="s">
         <v>136</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -2822,27 +2989,27 @@
       <c r="N25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:15">
-      <c r="C26">
+      <c r="C26" s="1">
         <v>604</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="4">
         <v>2016</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>4</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="7" t="s">
         <v>138</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -2851,27 +3018,27 @@
       <c r="N26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:15">
-      <c r="C27">
+      <c r="C27" s="1">
         <v>605</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I27" s="4">
         <v>2017</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="7" t="s">
         <v>141</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -2880,27 +3047,27 @@
       <c r="N27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:15">
-      <c r="C28">
+      <c r="C28" s="1">
         <v>701</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I28" s="4">
         <v>2014</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -2909,27 +3076,27 @@
       <c r="N28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:15">
-      <c r="C29">
+      <c r="C29" s="1">
         <v>702</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I29" s="4">
         <v>2015</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="7" t="s">
         <v>152</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -2938,27 +3105,27 @@
       <c r="N29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:15">
-      <c r="C30">
+      <c r="C30" s="1">
         <v>703</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I30" s="4">
         <v>2015</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="7" t="s">
         <v>155</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -2967,27 +3134,27 @@
       <c r="N30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="C31">
+      <c r="C31" s="1">
         <v>704</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I31" s="4">
         <v>2016</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>4</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="7" t="s">
         <v>158</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2996,27 +3163,27 @@
       <c r="N31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32">
+      <c r="C32" s="1">
         <v>705</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I32" s="4">
         <v>2017</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>5</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="7" t="s">
         <v>161</v>
       </c>
       <c r="M32" s="4" t="s">
@@ -3025,27 +3192,27 @@
       <c r="N32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33">
+      <c r="C33" s="1">
         <v>801</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="4">
         <v>2014</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="7" t="s">
         <v>169</v>
       </c>
       <c r="M33" s="4" t="s">
@@ -3054,27 +3221,27 @@
       <c r="N33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34">
+      <c r="C34" s="1">
         <v>802</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="4">
         <v>2015</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>2</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="7" t="s">
         <v>172</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -3083,27 +3250,27 @@
       <c r="N34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35">
+      <c r="C35" s="1">
         <v>803</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="4">
         <v>2015</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>3</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="7" t="s">
         <v>175</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -3112,27 +3279,27 @@
       <c r="N35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36">
+      <c r="C36" s="1">
         <v>804</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I36" s="4">
         <v>2016</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>4</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="7" t="s">
         <v>178</v>
       </c>
       <c r="M36" s="4" t="s">
@@ -3141,27 +3308,27 @@
       <c r="N36" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37">
+      <c r="C37" s="1">
         <v>805</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I37" s="4">
         <v>2017</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>5</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="7" t="s">
         <v>181</v>
       </c>
       <c r="M37" s="4" t="s">
@@ -3170,27 +3337,27 @@
       <c r="N37" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="O37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38">
+      <c r="C38" s="1">
         <v>901</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I38" s="4">
         <v>2015</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="7" t="s">
         <v>188</v>
       </c>
       <c r="M38" s="4" t="s">
@@ -3199,27 +3366,27 @@
       <c r="N38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39">
+      <c r="C39" s="1">
         <v>902</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="4">
         <v>2016</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="1">
         <v>2</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="7" t="s">
         <v>191</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -3228,27 +3395,27 @@
       <c r="N39" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1001</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I40" s="4">
         <v>2016</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="7" t="s">
         <v>194</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -3257,27 +3424,27 @@
       <c r="N40" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1002</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="4">
         <v>2017</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="1">
         <v>2</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -3286,8 +3453,239 @@
       <c r="N41" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="O41" s="5" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3305,203 +3703,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3520,7 +3920,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -3537,326 +3940,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="str">
+        <f>B2</f>
+        <v>Current use of any modern contraceptive method (all women)</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E9" si="0">B3</f>
+        <v>Current use of any modern contraceptive method (married women)</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contraceptive method mix (all women)</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Contraceptive method mix (married women)</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Percent of all users using IUDs</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Unmet need for family planning, total (all women)</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Percent of public SDPs providing IUDs</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1002</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Percent of public SDPs offering at least 3 modern contraceptive methods</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3875,123 +4291,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4010,728 +4429,731 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>10001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>10002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>10003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>10004</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>10005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>10006</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>10007</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>10008</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>10009</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>10010</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>100001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>100002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>100003</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>100004</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>1008</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>1101</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>1102</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>1104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>1107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>1108</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>1109</v>
       </c>
     </row>
@@ -4750,7 +5172,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4774,748 +5199,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>15.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>14.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>16.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>14.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>14.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>15.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>16.2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>14.3</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>14.6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>17.7</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>15.6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14.7</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15.2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15.1</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>21.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19.3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>24.4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20.2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20.8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>25.7</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>27.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>24.8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>30.3</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>33.6</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>31.5</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>29.1</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>26.2</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>19</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>26.6</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>23.3</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>30.3</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>31.7</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>29.4</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>28.7</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>21.3</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>20.8</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>22.9</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>19.8</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>27.3</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>29.1</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>27.8</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>24.1</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>15.7</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5534,740 +5967,742 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="B2">
+      <c r="B2" s="1">
         <v>41.8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>43.8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>37.6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>44.4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>42.8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>42.9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40.9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>44.2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>38.799999999999997</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>39.700000000000003</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14">
+      <c r="B14" s="1">
         <v>38.5</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15">
+      <c r="B15" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16">
+      <c r="B16" s="1">
         <v>42.6</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17">
+      <c r="B17" s="1">
         <v>43</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18">
+      <c r="B18" s="1">
         <v>48.1</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19">
+      <c r="B19" s="1">
         <v>51.2</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20">
+      <c r="B20" s="1">
         <v>46.1</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21">
+      <c r="B21" s="1">
         <v>45.1</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22">
+      <c r="B22" s="1">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23">
+      <c r="B23" s="1">
         <v>44.3</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24">
+      <c r="B24" s="1">
         <v>55.5</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25">
+      <c r="B25" s="1">
         <v>50.3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26">
+      <c r="B26" s="1">
         <v>18.7</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27">
+      <c r="B27" s="1">
         <v>16</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28">
+      <c r="B28" s="1">
         <v>20.8</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29">
+      <c r="B29" s="1">
         <v>24.6</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>16.7</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>15.1</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32">
+      <c r="B32" s="1">
         <v>17</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33">
+      <c r="B33" s="1">
         <v>15.4</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34">
+      <c r="B34" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35">
+      <c r="B35" s="1">
         <v>12.1</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36">
+      <c r="B36" s="1">
         <v>19.5</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37">
+      <c r="B37" s="1">
         <v>19.3</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38">
+      <c r="B38" s="1">
         <v>21.1</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39">
+      <c r="B39" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40">
+      <c r="B40" s="1">
         <v>13.9</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41">
+      <c r="B41" s="1">
         <v>11.6</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42">
+      <c r="B42" s="1">
         <v>14.6</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43">
+      <c r="B43" s="1">
         <v>11.6</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44">
+      <c r="B44" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45">
+      <c r="B45" s="1">
         <v>18.2</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46">
+      <c r="B46" s="1">
         <v>17.3</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47">
+      <c r="B47" s="1">
         <v>14.5</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48">
+      <c r="B48" s="1">
         <v>12.1</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49">
+      <c r="B49" s="1">
         <v>10.5</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>363</v>
       </c>
     </row>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="412">
   <si>
     <t>label</t>
   </si>
@@ -1147,27 +1147,15 @@
     <t>denom_uw</t>
   </si>
   <si>
-    <t>implementing_partner</t>
-  </si>
-  <si>
-    <t>primary_donor</t>
-  </si>
-  <si>
     <t>PMA</t>
   </si>
   <si>
     <t>TUL</t>
   </si>
   <si>
-    <t>type_code (for calculating code)</t>
-  </si>
-  <si>
     <t>CORE</t>
   </si>
   <si>
-    <t>survey(_subtype)(_questionnaire)?</t>
-  </si>
-  <si>
     <t>geo_code</t>
   </si>
   <si>
@@ -1186,6 +1174,9 @@
     <t>jef</t>
   </si>
   <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>meta-update</t>
   </si>
   <si>
@@ -1222,9 +1213,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Highlight</t>
-  </si>
-  <si>
     <t>Pink</t>
   </si>
   <si>
@@ -1238,6 +1226,48 @@
   </si>
   <si>
     <t>Insert meaning here.</t>
+  </si>
+  <si>
+    <t>Highlight Rules</t>
+  </si>
+  <si>
+    <t>Column Name Rules</t>
+  </si>
+  <si>
+    <t>Ignore Field Prefix</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Any column/field which starts with a "__" will be ignored and not be read into the database.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>__type_code (for calculating code)</t>
+  </si>
+  <si>
+    <t>__survey(_subtype)(_questionnaire)?</t>
+  </si>
+  <si>
+    <t>__implementing_partner</t>
+  </si>
+  <si>
+    <t>__primary_donor</t>
+  </si>
+  <si>
+    <t>Added Column Name Rule "Ignore Field Prefix" as "__".</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Changed the following fields to be ignored by prefixing with "__": __type_code (for calculating code) __survey(_subtype)(_questionnaire)? __implementing_partner __primary_donor</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1361,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1629,7 +1671,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="265">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1756,6 +1798,12 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1882,6 +1930,12 @@
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2213,9 +2267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2224,10 +2278,10 @@
     <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -2252,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -2296,10 +2350,10 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="I2" s="4">
         <v>2013</v>
@@ -2563,7 +2617,7 @@
         <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I11" s="4">
         <v>2014</v>
@@ -3470,75 +3524,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
         <v>393</v>
       </c>
-      <c r="B1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="C5" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>401</v>
+      <c r="D6" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3554,13 +3637,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3570,22 +3653,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3596,16 +3679,16 @@
         <v>42961</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3616,16 +3699,16 @@
         <v>42961</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3636,16 +3719,16 @@
         <v>42961</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3656,16 +3739,16 @@
         <v>42961</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3676,16 +3759,56 @@
         <v>42961</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>389</v>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>42961</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3828,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5259,7 +5382,7 @@
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:13">

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26340" tabRatio="669" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="411">
   <si>
     <t>label</t>
   </si>
@@ -1136,9 +1136,6 @@
   </si>
   <si>
     <t>char2_code</t>
-  </si>
-  <si>
-    <t>subgeo_code</t>
   </si>
   <si>
     <t>denom_w</t>
@@ -1361,8 +1358,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1671,7 +1670,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1804,6 +1803,7 @@
     <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1936,6 +1936,7 @@
     <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2269,7 +2270,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:H1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2306,16 +2307,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -2350,10 +2351,10 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I2" s="4">
         <v>2013</v>
@@ -2617,7 +2618,7 @@
         <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="4">
         <v>2014</v>
@@ -3530,7 +3531,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3542,86 +3543,86 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
         <v>390</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>391</v>
       </c>
-      <c r="C1" t="s">
-        <v>392</v>
-      </c>
       <c r="D1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>397</v>
-      </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>401</v>
-      </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3639,11 +3640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3653,22 +3654,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3679,16 +3680,16 @@
         <v>42961</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3699,16 +3700,16 @@
         <v>42961</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3719,16 +3720,16 @@
         <v>42961</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3739,16 +3740,16 @@
         <v>42961</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3759,16 +3760,16 @@
         <v>42961</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3779,16 +3780,16 @@
         <v>42961</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3799,16 +3800,16 @@
         <v>42961</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="E8" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3829,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4416,7 +4417,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5364,10 +5365,10 @@
         <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>362</v>
@@ -5382,7 +5383,7 @@
         <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6090,9 +6091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6136,10 +6137,10 @@
         <v>361</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>362</v>
@@ -6154,7 +6155,7 @@
         <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14">

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37140" yWindow="4080" windowWidth="102400" windowHeight="61000" tabRatio="669" activeTab="4"/>
+    <workbookView xWindow="9160" yWindow="5020" windowWidth="30560" windowHeight="19920" tabRatio="669" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="377">
   <si>
     <t>label</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Southeast Asia</t>
   </si>
   <si>
-    <t>label_id</t>
-  </si>
-  <si>
     <t>PMA2020</t>
   </si>
   <si>
@@ -1131,9 +1128,6 @@
   </si>
   <si>
     <t>char2_code</t>
-  </si>
-  <si>
-    <t>subgeo_code</t>
   </si>
   <si>
     <t>denom_w</t>
@@ -1478,13 +1472,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2051,1242 +2044,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
-    <col min="13" max="13" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="4"/>
-    <col min="15" max="15" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="4"/>
+    <col min="14" max="14" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2013</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="C2">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2013</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="C3">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2014</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="C4">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="C5">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="C6">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>58</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="C7">
-        <v>201</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8">
-        <v>202</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
         <v>64</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="C9">
-        <v>203</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10">
-        <v>204</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" t="s">
         <v>72</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>301</v>
+      </c>
+      <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11">
-        <v>301</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="K11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>302</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4">
         <v>2014</v>
       </c>
-      <c r="J11">
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15">
+        <v>305</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16">
+        <v>401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="C12">
-        <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="J16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17">
+        <v>402</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19">
+        <v>501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="4">
         <v>2014</v>
       </c>
-      <c r="J12">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20">
+        <v>502</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="C13">
-        <v>303</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="J20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21">
+        <v>503</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23">
+        <v>601</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24">
+        <v>602</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4">
         <v>2015</v>
       </c>
-      <c r="J13">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25">
+        <v>603</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14">
-        <v>304</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="J25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" t="s">
+        <v>362</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26">
+        <v>604</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27">
+        <v>605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <v>701</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29">
+        <v>702</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="4">
         <v>2015</v>
       </c>
-      <c r="J14">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30">
+        <v>703</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31">
+        <v>704</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I31">
         <v>4</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="C15">
-        <v>305</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="J31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32">
+        <v>705</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33">
+        <v>801</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2014</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <v>802</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" t="s">
+        <v>172</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>803</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2015</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s">
+        <v>175</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <v>804</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="4">
         <v>2016</v>
       </c>
-      <c r="J15">
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>805</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I37">
         <v>5</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="C16">
-        <v>401</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="J37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <v>901</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="4">
         <v>2015</v>
       </c>
-      <c r="J16">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15">
-      <c r="C17">
-        <v>402</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="J38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <v>902</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="4">
         <v>2016</v>
       </c>
-      <c r="J17">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15">
-      <c r="C18">
-        <v>403</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="J39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <v>1001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4">
         <v>2016</v>
       </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15">
-      <c r="C19">
-        <v>501</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2014</v>
-      </c>
-      <c r="J19">
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15">
-      <c r="C20">
-        <v>502</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J20">
+      <c r="J40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" t="s">
+        <v>196</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <v>1002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2017</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15">
-      <c r="C21">
-        <v>503</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15">
-      <c r="C22">
-        <v>504</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15">
-      <c r="C23">
-        <v>601</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2014</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15">
-      <c r="C24">
-        <v>602</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15">
-      <c r="C25">
-        <v>603</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15">
-      <c r="C26">
-        <v>604</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15">
-      <c r="C27">
-        <v>605</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15">
-      <c r="C28">
-        <v>701</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2014</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15">
-      <c r="C29">
-        <v>702</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15">
-      <c r="C30">
-        <v>703</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="C31">
-        <v>704</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15">
-      <c r="C32">
-        <v>705</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15">
-      <c r="C33">
-        <v>801</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2014</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15">
-      <c r="C34">
-        <v>802</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15">
-      <c r="C35">
-        <v>803</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36">
-        <v>804</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15">
-      <c r="C37">
-        <v>805</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15">
-      <c r="C38">
-        <v>901</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="4">
-        <v>2015</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15">
-      <c r="C39">
-        <v>902</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15">
-      <c r="C40">
-        <v>1001</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="K41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L41" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15">
-      <c r="C41">
-        <v>1002</v>
-      </c>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="4">
-        <v>2017</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O41" s="8" t="s">
+      <c r="N41" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3315,7 +3305,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3331,8 +3321,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>200</v>
+      <c r="E1" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3348,7 +3338,7 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3365,7 +3355,7 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3382,7 +3372,7 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3399,7 +3389,7 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3416,7 +3406,7 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3433,7 +3423,7 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3450,7 +3440,7 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3467,7 +3457,7 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3484,7 +3474,7 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3501,7 +3491,7 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3520,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
@@ -3537,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3556,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3568,60 +3558,60 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
         <v>317</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>319</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>320</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>321</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>322</v>
-      </c>
-      <c r="L1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
         <v>350</v>
       </c>
-      <c r="G2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H2" t="s">
-        <v>351</v>
-      </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3632,66 +3622,66 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" t="s">
         <v>350</v>
       </c>
-      <c r="G3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H3" t="s">
-        <v>351</v>
-      </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" t="s">
         <v>333</v>
       </c>
-      <c r="E4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I4" t="s">
-        <v>334</v>
-      </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3702,162 +3692,162 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" t="s">
         <v>350</v>
       </c>
-      <c r="G5" t="s">
-        <v>347</v>
-      </c>
-      <c r="H5" t="s">
-        <v>351</v>
-      </c>
       <c r="I5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="s">
         <v>350</v>
       </c>
-      <c r="G6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H6" t="s">
-        <v>351</v>
-      </c>
       <c r="I6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" t="s">
         <v>350</v>
       </c>
-      <c r="G7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H7" t="s">
-        <v>351</v>
-      </c>
       <c r="I7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" t="s">
         <v>337</v>
-      </c>
-      <c r="J8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9">
         <v>1002</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" t="s">
         <v>353</v>
       </c>
-      <c r="G9" t="s">
-        <v>354</v>
-      </c>
       <c r="H9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I9" t="s">
+        <v>336</v>
+      </c>
+      <c r="J9" t="s">
         <v>337</v>
-      </c>
-      <c r="J9" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3875,8 +3865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3887,112 +3877,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
         <v>210</v>
       </c>
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
         <v>212</v>
       </c>
-      <c r="B8" t="s">
-        <v>213</v>
-      </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4011,22 +4001,22 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>364</v>
+      <c r="A1" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4036,700 +4026,700 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
-        <v>215</v>
-      </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>214</v>
+      <c r="A3" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>214</v>
+      <c r="A4" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>214</v>
+      <c r="A5" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>214</v>
+      <c r="A6" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>214</v>
+      <c r="A7" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>214</v>
+      <c r="A8" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>204</v>
+      <c r="A9" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>204</v>
+      <c r="A10" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>205</v>
+      <c r="A11" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>205</v>
+      <c r="A12" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>206</v>
+      <c r="A13" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>206</v>
+      <c r="A14" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>206</v>
+      <c r="A15" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D15">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>206</v>
+      <c r="A16" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>206</v>
+      <c r="A17" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D17">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>207</v>
+      <c r="A18" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>207</v>
+      <c r="A19" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>207</v>
+      <c r="A20" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>210</v>
+      <c r="A21" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D21">
         <v>10001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>210</v>
+      <c r="A22" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22">
         <v>10002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>210</v>
+      <c r="A23" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23">
         <v>10003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>210</v>
+      <c r="A24" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D24">
         <v>10004</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>210</v>
+      <c r="A25" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25">
         <v>10005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>210</v>
+      <c r="A26" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D26">
         <v>10006</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>210</v>
+      <c r="A27" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D27">
         <v>10007</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>210</v>
+      <c r="A28" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28">
         <v>10008</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>210</v>
+      <c r="A29" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29">
         <v>10009</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>210</v>
+      <c r="A30" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30">
         <v>10010</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>212</v>
+      <c r="A31" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D31">
         <v>100001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>212</v>
+      <c r="A32" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D32">
         <v>100002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>212</v>
+      <c r="A33" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D33">
         <v>100003</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>212</v>
+      <c r="A34" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D34">
         <v>100004</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>285</v>
+      <c r="A35" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" t="s">
         <v>288</v>
-      </c>
-      <c r="C35" t="s">
-        <v>289</v>
       </c>
       <c r="D35">
         <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>285</v>
+      <c r="A36" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D36">
         <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>285</v>
+      <c r="A37" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D37">
         <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>285</v>
+      <c r="A38" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D38">
         <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>285</v>
+      <c r="A39" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D39">
         <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>285</v>
+      <c r="A40" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40">
         <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>285</v>
+      <c r="A41" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41">
         <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>285</v>
+      <c r="A42" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D42">
         <v>1008</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>286</v>
+      <c r="A43" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43">
         <v>1101</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>286</v>
+      <c r="A44" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44">
         <v>1102</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>286</v>
+      <c r="A45" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45">
         <v>1103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>286</v>
+      <c r="A46" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46">
         <v>1104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>286</v>
+      <c r="A47" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47">
         <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>286</v>
+      <c r="A48" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48">
         <v>1106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>286</v>
+      <c r="A49" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49">
         <v>1107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>286</v>
+      <c r="A50" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D50">
         <v>1108</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>286</v>
+      <c r="A51" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" t="s">
         <v>315</v>
-      </c>
-      <c r="C51" t="s">
-        <v>316</v>
       </c>
       <c r="D51">
         <v>1109</v>
@@ -4775,58 +4765,58 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" t="s">
         <v>356</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>357</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>358</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>359</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>360</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>378</v>
+      <c r="L1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4839,11 +4829,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
+      <c r="I2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4853,14 +4843,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
+      <c r="I3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4870,14 +4860,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
+      <c r="I4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4887,14 +4877,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>339</v>
-      </c>
-      <c r="J5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
+      <c r="I5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4904,14 +4894,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" t="s">
-        <v>243</v>
-      </c>
-      <c r="L6" t="s">
-        <v>48</v>
+      <c r="I6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4921,42 +4911,42 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>339</v>
-      </c>
-      <c r="J7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
+      <c r="I7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
         <v>16.2</v>
       </c>
-      <c r="I8" t="s">
-        <v>339</v>
-      </c>
-      <c r="J8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
+      <c r="I8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
         <v>14.3</v>
       </c>
-      <c r="I9" t="s">
-        <v>339</v>
-      </c>
-      <c r="J9" t="s">
-        <v>246</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
+      <c r="I9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4966,109 +4956,109 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="I10" t="s">
-        <v>339</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
+      <c r="I10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
         <v>14.6</v>
       </c>
-      <c r="I11" t="s">
-        <v>339</v>
-      </c>
-      <c r="J11" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
+      <c r="I11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
         <v>17.7</v>
       </c>
-      <c r="I12" t="s">
-        <v>339</v>
-      </c>
-      <c r="J12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
+      <c r="I12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
         <v>15.6</v>
       </c>
-      <c r="I13" t="s">
-        <v>339</v>
-      </c>
-      <c r="J13" t="s">
-        <v>242</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
+      <c r="I13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
         <v>14.7</v>
       </c>
-      <c r="I14" t="s">
-        <v>339</v>
-      </c>
-      <c r="J14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
+      <c r="I14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
         <v>15.2</v>
       </c>
-      <c r="I15" t="s">
-        <v>339</v>
-      </c>
-      <c r="J15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
+      <c r="I15" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
         <v>19.899999999999999</v>
       </c>
-      <c r="I16" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
+      <c r="I16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
         <v>15.1</v>
       </c>
-      <c r="I17" t="s">
-        <v>339</v>
-      </c>
-      <c r="J17" t="s">
-        <v>246</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
+      <c r="I17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5078,109 +5068,109 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
-        <v>339</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
+      <c r="I18" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
         <v>19.3</v>
       </c>
-      <c r="I19" t="s">
-        <v>339</v>
-      </c>
-      <c r="J19" t="s">
-        <v>233</v>
-      </c>
-      <c r="L19" t="s">
-        <v>42</v>
+      <c r="I19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
         <v>24.4</v>
       </c>
-      <c r="I20" t="s">
-        <v>339</v>
-      </c>
-      <c r="J20" t="s">
-        <v>234</v>
-      </c>
-      <c r="L20" t="s">
-        <v>42</v>
+      <c r="I20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
         <v>20.2</v>
       </c>
-      <c r="I21" t="s">
-        <v>339</v>
-      </c>
-      <c r="J21" t="s">
-        <v>242</v>
-      </c>
-      <c r="L21" t="s">
-        <v>42</v>
+      <c r="I21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
         <v>20.8</v>
       </c>
-      <c r="I22" t="s">
-        <v>339</v>
-      </c>
-      <c r="J22" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22" t="s">
-        <v>42</v>
+      <c r="I22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
         <v>19.600000000000001</v>
       </c>
-      <c r="I23" t="s">
-        <v>339</v>
-      </c>
-      <c r="J23" t="s">
-        <v>244</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
+      <c r="I23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
         <v>25.7</v>
       </c>
-      <c r="I24" t="s">
-        <v>339</v>
-      </c>
-      <c r="J24" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
+      <c r="I24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="I25" t="s">
-        <v>339</v>
-      </c>
-      <c r="J25" t="s">
-        <v>246</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
+      <c r="I25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5190,109 +5180,109 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>343</v>
-      </c>
-      <c r="L26" t="s">
-        <v>48</v>
+      <c r="I26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
         <v>24.8</v>
       </c>
-      <c r="I27" t="s">
-        <v>343</v>
-      </c>
-      <c r="J27" t="s">
-        <v>233</v>
-      </c>
-      <c r="L27" t="s">
-        <v>48</v>
+      <c r="I27" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
         <v>30.3</v>
       </c>
-      <c r="I28" t="s">
-        <v>343</v>
-      </c>
-      <c r="J28" t="s">
-        <v>234</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
+      <c r="I28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
         <v>33.6</v>
       </c>
-      <c r="I29" t="s">
-        <v>343</v>
-      </c>
-      <c r="J29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s">
-        <v>48</v>
+      <c r="I29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
         <v>31.5</v>
       </c>
-      <c r="I30" t="s">
-        <v>343</v>
-      </c>
-      <c r="J30" t="s">
-        <v>243</v>
-      </c>
-      <c r="L30" t="s">
-        <v>48</v>
+      <c r="I30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
         <v>29.1</v>
       </c>
-      <c r="I31" t="s">
-        <v>343</v>
-      </c>
-      <c r="J31" t="s">
-        <v>244</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
+      <c r="I31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
         <v>26.2</v>
       </c>
-      <c r="I32" t="s">
-        <v>343</v>
-      </c>
-      <c r="J32" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
+      <c r="I32" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
         <v>19</v>
       </c>
-      <c r="I33" t="s">
-        <v>343</v>
-      </c>
-      <c r="J33" t="s">
-        <v>246</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
+      <c r="I33" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -5302,109 +5292,109 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
-        <v>343</v>
-      </c>
-      <c r="L34" t="s">
-        <v>43</v>
+      <c r="I34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
         <v>23.3</v>
       </c>
-      <c r="I35" t="s">
-        <v>343</v>
-      </c>
-      <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" t="s">
-        <v>43</v>
+      <c r="I35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
         <v>30.3</v>
       </c>
-      <c r="I36" t="s">
-        <v>343</v>
-      </c>
-      <c r="J36" t="s">
-        <v>234</v>
-      </c>
-      <c r="L36" t="s">
-        <v>43</v>
+      <c r="I36" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
         <v>31.7</v>
       </c>
-      <c r="I37" t="s">
-        <v>343</v>
-      </c>
-      <c r="J37" t="s">
-        <v>242</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
+      <c r="I37" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
         <v>29.4</v>
       </c>
-      <c r="I38" t="s">
-        <v>343</v>
-      </c>
-      <c r="J38" t="s">
-        <v>243</v>
-      </c>
-      <c r="L38" t="s">
-        <v>43</v>
+      <c r="I38" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
         <v>28.7</v>
       </c>
-      <c r="I39" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" t="s">
-        <v>43</v>
+      <c r="I39" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
         <v>21.3</v>
       </c>
-      <c r="I40" t="s">
-        <v>343</v>
-      </c>
-      <c r="J40" t="s">
-        <v>245</v>
-      </c>
-      <c r="L40" t="s">
-        <v>43</v>
+      <c r="I40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
         <v>20.8</v>
       </c>
-      <c r="I41" t="s">
-        <v>343</v>
-      </c>
-      <c r="J41" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" t="s">
-        <v>43</v>
+      <c r="I41" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5414,109 +5404,109 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
-        <v>343</v>
-      </c>
-      <c r="L42" t="s">
-        <v>42</v>
+      <c r="I42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
         <v>19.8</v>
       </c>
-      <c r="I43" t="s">
-        <v>343</v>
-      </c>
-      <c r="J43" t="s">
-        <v>233</v>
-      </c>
-      <c r="L43" t="s">
-        <v>42</v>
+      <c r="I43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
         <v>27.3</v>
       </c>
-      <c r="I44" t="s">
-        <v>343</v>
-      </c>
-      <c r="J44" t="s">
-        <v>234</v>
-      </c>
-      <c r="L44" t="s">
-        <v>42</v>
+      <c r="I44" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
         <v>29.1</v>
       </c>
-      <c r="I45" t="s">
-        <v>343</v>
-      </c>
-      <c r="J45" t="s">
-        <v>242</v>
-      </c>
-      <c r="L45" t="s">
-        <v>42</v>
+      <c r="I45" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
         <v>27.8</v>
       </c>
-      <c r="I46" t="s">
-        <v>343</v>
-      </c>
-      <c r="J46" t="s">
-        <v>243</v>
-      </c>
-      <c r="L46" t="s">
-        <v>42</v>
+      <c r="I46" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
         <v>24.1</v>
       </c>
-      <c r="I47" t="s">
-        <v>343</v>
-      </c>
-      <c r="J47" t="s">
-        <v>244</v>
-      </c>
-      <c r="L47" t="s">
-        <v>42</v>
+      <c r="I47" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
         <v>17.100000000000001</v>
       </c>
-      <c r="I48" t="s">
-        <v>343</v>
-      </c>
-      <c r="J48" t="s">
-        <v>245</v>
-      </c>
-      <c r="L48" t="s">
-        <v>42</v>
+      <c r="I48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
         <v>15.7</v>
       </c>
-      <c r="I49" t="s">
-        <v>343</v>
-      </c>
-      <c r="J49" t="s">
-        <v>246</v>
-      </c>
-      <c r="L49" t="s">
-        <v>42</v>
+      <c r="I49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5534,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5549,54 +5539,54 @@
     <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>360</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>368</v>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5606,109 +5596,109 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>339</v>
-      </c>
-      <c r="M2" t="s">
-        <v>131</v>
+      <c r="J2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3">
         <v>43.8</v>
       </c>
-      <c r="J3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" t="s">
-        <v>131</v>
+      <c r="J3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4">
         <v>40.200000000000003</v>
       </c>
-      <c r="J4" t="s">
-        <v>339</v>
-      </c>
-      <c r="K4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" t="s">
-        <v>131</v>
+      <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
         <v>37.6</v>
       </c>
-      <c r="J5" t="s">
-        <v>339</v>
-      </c>
-      <c r="K5" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" t="s">
-        <v>131</v>
+      <c r="J5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6">
         <v>44.4</v>
       </c>
-      <c r="J6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" t="s">
-        <v>243</v>
-      </c>
-      <c r="M6" t="s">
-        <v>131</v>
+      <c r="J6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M7" t="s">
-        <v>131</v>
+      <c r="J7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8">
         <v>42.8</v>
       </c>
-      <c r="J8" t="s">
-        <v>339</v>
-      </c>
-      <c r="K8" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" t="s">
-        <v>131</v>
+      <c r="J8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9">
         <v>42.9</v>
       </c>
-      <c r="J9" t="s">
-        <v>339</v>
-      </c>
-      <c r="K9" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" t="s">
-        <v>131</v>
+      <c r="J9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5718,109 +5708,109 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>339</v>
-      </c>
-      <c r="M10" t="s">
-        <v>134</v>
+      <c r="J10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11">
         <v>44.2</v>
       </c>
-      <c r="J11" t="s">
-        <v>339</v>
-      </c>
-      <c r="K11" t="s">
-        <v>233</v>
-      </c>
-      <c r="M11" t="s">
-        <v>134</v>
+      <c r="J11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12">
         <v>38.799999999999997</v>
       </c>
-      <c r="J12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K12" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" t="s">
-        <v>134</v>
+      <c r="J12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13">
         <v>39.700000000000003</v>
       </c>
-      <c r="J13" t="s">
-        <v>339</v>
-      </c>
-      <c r="K13" t="s">
-        <v>242</v>
-      </c>
-      <c r="M13" t="s">
-        <v>134</v>
+      <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14">
         <v>38.5</v>
       </c>
-      <c r="J14" t="s">
-        <v>339</v>
-      </c>
-      <c r="K14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M14" t="s">
-        <v>134</v>
+      <c r="J14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15">
         <v>40.700000000000003</v>
       </c>
-      <c r="J15" t="s">
-        <v>339</v>
-      </c>
-      <c r="K15" t="s">
-        <v>244</v>
-      </c>
-      <c r="M15" t="s">
-        <v>134</v>
+      <c r="J15" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16">
         <v>42.6</v>
       </c>
-      <c r="J16" t="s">
-        <v>339</v>
-      </c>
-      <c r="K16" t="s">
-        <v>245</v>
-      </c>
-      <c r="M16" t="s">
-        <v>134</v>
+      <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17">
         <v>43</v>
       </c>
-      <c r="J17" t="s">
-        <v>339</v>
-      </c>
-      <c r="K17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
-        <v>134</v>
+      <c r="J17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -5830,109 +5820,109 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
-        <v>339</v>
-      </c>
-      <c r="M18" t="s">
-        <v>363</v>
+      <c r="J18" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19">
         <v>51.2</v>
       </c>
-      <c r="J19" t="s">
-        <v>339</v>
-      </c>
-      <c r="K19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M19" t="s">
-        <v>363</v>
+      <c r="J19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20">
         <v>46.1</v>
       </c>
-      <c r="J20" t="s">
-        <v>339</v>
-      </c>
-      <c r="K20" t="s">
-        <v>234</v>
-      </c>
-      <c r="M20" t="s">
-        <v>363</v>
+      <c r="J20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21">
         <v>45.1</v>
       </c>
-      <c r="J21" t="s">
-        <v>339</v>
-      </c>
-      <c r="K21" t="s">
-        <v>242</v>
-      </c>
-      <c r="M21" t="s">
-        <v>363</v>
+      <c r="J21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22">
         <v>46</v>
       </c>
-      <c r="J22" t="s">
-        <v>339</v>
-      </c>
-      <c r="K22" t="s">
-        <v>243</v>
-      </c>
-      <c r="M22" t="s">
-        <v>363</v>
+      <c r="J22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23">
         <v>44.3</v>
       </c>
-      <c r="J23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" t="s">
-        <v>244</v>
-      </c>
-      <c r="M23" t="s">
-        <v>363</v>
+      <c r="J23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24">
         <v>55.5</v>
       </c>
-      <c r="J24" t="s">
-        <v>339</v>
-      </c>
-      <c r="K24" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" t="s">
-        <v>363</v>
+      <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25">
         <v>50.3</v>
       </c>
-      <c r="J25" t="s">
-        <v>339</v>
-      </c>
-      <c r="K25" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s">
-        <v>363</v>
+      <c r="J25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -5942,109 +5932,109 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>343</v>
-      </c>
-      <c r="M26" t="s">
-        <v>131</v>
+      <c r="J26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27">
         <v>16</v>
       </c>
-      <c r="J27" t="s">
-        <v>343</v>
-      </c>
-      <c r="K27" t="s">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s">
-        <v>131</v>
+      <c r="J27" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28">
         <v>20.8</v>
       </c>
-      <c r="J28" t="s">
-        <v>343</v>
-      </c>
-      <c r="K28" t="s">
-        <v>234</v>
-      </c>
-      <c r="M28" t="s">
-        <v>131</v>
+      <c r="J28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29">
         <v>24.6</v>
       </c>
-      <c r="J29" t="s">
-        <v>343</v>
-      </c>
-      <c r="K29" t="s">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s">
-        <v>131</v>
+      <c r="J29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30">
         <v>16.7</v>
       </c>
-      <c r="J30" t="s">
-        <v>343</v>
-      </c>
-      <c r="K30" t="s">
-        <v>243</v>
-      </c>
-      <c r="M30" t="s">
-        <v>131</v>
+      <c r="J30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31">
         <v>15.1</v>
       </c>
-      <c r="J31" t="s">
-        <v>343</v>
-      </c>
-      <c r="K31" t="s">
-        <v>244</v>
-      </c>
-      <c r="M31" t="s">
-        <v>131</v>
+      <c r="J31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32">
         <v>17</v>
       </c>
-      <c r="J32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K32" t="s">
-        <v>245</v>
-      </c>
-      <c r="M32" t="s">
-        <v>131</v>
+      <c r="J32" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33">
         <v>15.4</v>
       </c>
-      <c r="J33" t="s">
-        <v>343</v>
-      </c>
-      <c r="K33" t="s">
-        <v>246</v>
-      </c>
-      <c r="M33" t="s">
-        <v>131</v>
+      <c r="J33" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -6054,109 +6044,109 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>343</v>
-      </c>
-      <c r="M34" t="s">
-        <v>134</v>
+      <c r="J34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35">
         <v>12.1</v>
       </c>
-      <c r="J35" t="s">
-        <v>343</v>
-      </c>
-      <c r="K35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M35" t="s">
-        <v>134</v>
+      <c r="J35" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36">
         <v>19.5</v>
       </c>
-      <c r="J36" t="s">
-        <v>343</v>
-      </c>
-      <c r="K36" t="s">
-        <v>234</v>
-      </c>
-      <c r="M36" t="s">
-        <v>134</v>
+      <c r="J36" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37">
         <v>19.3</v>
       </c>
-      <c r="J37" t="s">
-        <v>343</v>
-      </c>
-      <c r="K37" t="s">
-        <v>242</v>
-      </c>
-      <c r="M37" t="s">
-        <v>134</v>
+      <c r="J37" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38">
         <v>21.1</v>
       </c>
-      <c r="J38" t="s">
-        <v>343</v>
-      </c>
-      <c r="K38" t="s">
-        <v>243</v>
-      </c>
-      <c r="M38" t="s">
-        <v>134</v>
+      <c r="J38" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39">
         <v>16.899999999999999</v>
       </c>
-      <c r="J39" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" t="s">
-        <v>244</v>
-      </c>
-      <c r="M39" t="s">
-        <v>134</v>
+      <c r="J39" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40">
         <v>13.9</v>
       </c>
-      <c r="J40" t="s">
-        <v>343</v>
-      </c>
-      <c r="K40" t="s">
-        <v>245</v>
-      </c>
-      <c r="M40" t="s">
-        <v>134</v>
+      <c r="J40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41">
         <v>11.6</v>
       </c>
-      <c r="J41" t="s">
-        <v>343</v>
-      </c>
-      <c r="K41" t="s">
-        <v>246</v>
-      </c>
-      <c r="M41" t="s">
-        <v>134</v>
+      <c r="J41" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -6166,109 +6156,109 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
-        <v>343</v>
-      </c>
-      <c r="M42" t="s">
-        <v>363</v>
+      <c r="J42" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43">
         <v>11.6</v>
       </c>
-      <c r="J43" t="s">
-        <v>343</v>
-      </c>
-      <c r="K43" t="s">
-        <v>233</v>
-      </c>
-      <c r="M43" t="s">
-        <v>363</v>
+      <c r="J43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44">
         <v>16.600000000000001</v>
       </c>
-      <c r="J44" t="s">
-        <v>343</v>
-      </c>
-      <c r="K44" t="s">
-        <v>234</v>
-      </c>
-      <c r="M44" t="s">
-        <v>363</v>
+      <c r="J44" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45">
         <v>18.2</v>
       </c>
-      <c r="J45" t="s">
-        <v>343</v>
-      </c>
-      <c r="K45" t="s">
-        <v>242</v>
-      </c>
-      <c r="M45" t="s">
-        <v>363</v>
+      <c r="J45" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46">
         <v>17.3</v>
       </c>
-      <c r="J46" t="s">
-        <v>343</v>
-      </c>
-      <c r="K46" t="s">
-        <v>243</v>
-      </c>
-      <c r="M46" t="s">
-        <v>363</v>
+      <c r="J46" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47">
         <v>14.5</v>
       </c>
-      <c r="J47" t="s">
-        <v>343</v>
-      </c>
-      <c r="K47" t="s">
-        <v>244</v>
-      </c>
-      <c r="M47" t="s">
-        <v>363</v>
+      <c r="J47" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48">
         <v>12.1</v>
       </c>
-      <c r="J48" t="s">
-        <v>343</v>
-      </c>
-      <c r="K48" t="s">
-        <v>245</v>
-      </c>
-      <c r="M48" t="s">
-        <v>363</v>
+      <c r="J48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49">
         <v>10.5</v>
       </c>
-      <c r="J49" t="s">
-        <v>343</v>
-      </c>
-      <c r="K49" t="s">
-        <v>246</v>
-      </c>
-      <c r="M49" t="s">
-        <v>363</v>
+      <c r="J49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="5020" windowWidth="30560" windowHeight="19920" tabRatio="669"/>
+    <workbookView xWindow="9160" yWindow="5020" windowWidth="30560" windowHeight="19920" tabRatio="669" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="geography" sheetId="2" r:id="rId7"/>
     <sheet name="data_ghana" sheetId="9" r:id="rId8"/>
     <sheet name="data_kenya" sheetId="10" r:id="rId9"/>
+    <sheet name="info" sheetId="11" r:id="rId10"/>
+    <sheet name="changelog" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="421">
   <si>
     <t>label</t>
   </si>
@@ -1158,6 +1160,138 @@
   </si>
   <si>
     <t>__primary_donor</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>jef</t>
+  </si>
+  <si>
+    <t>meta-update</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Created.</t>
+  </si>
+  <si>
+    <t>changelog</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Left aligned.</t>
+  </si>
+  <si>
+    <t>Froze header row.</t>
+  </si>
+  <si>
+    <t>Altered column widths.</t>
+  </si>
+  <si>
+    <t>Added Column Name Rule "Ignore Field Prefix" as "__".</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Changed the following fields to be ignored by prefixing with "__": __type_code (for calculating code) __survey(_subtype)(_questionnaire)? __implementing_partner __primary_donor</t>
+  </si>
+  <si>
+    <t>jkp</t>
+  </si>
+  <si>
+    <t>Updated model schema. Added highlighting. Added temporary columns.</t>
+  </si>
+  <si>
+    <t>Added highlight info.</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Highlight Rules</t>
+  </si>
+  <si>
+    <t>Light Purple</t>
+  </si>
+  <si>
+    <t>Light Green</t>
+  </si>
+  <si>
+    <t>Light Blue</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Column Name Rules</t>
+  </si>
+  <si>
+    <t>Ignore Field Prefix</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>Any column/field which starts with a "__" will be ignored and not be read into the database.</t>
+  </si>
+  <si>
+    <t>Red column means it is a key to another table and has to match exactly.</t>
+  </si>
+  <si>
+    <t>Green means we aren't certain if we want it (it would be for calculating)</t>
+  </si>
+  <si>
+    <t>Purple means we want to add at some point, but maybe not now.</t>
+  </si>
+  <si>
+    <t>Blue means it could be calculated.</t>
+  </si>
+  <si>
+    <t>For future.</t>
+  </si>
+  <si>
+    <t>Under consideration.</t>
+  </si>
+  <si>
+    <t>Calculatable.</t>
+  </si>
+  <si>
+    <t>Foreign key.</t>
+  </si>
+  <si>
+    <t>data_kenya</t>
+  </si>
+  <si>
+    <t>Removed 'code' field.</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,6 +1361,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1237,7 +1377,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1471,18 +1611,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1599,6 +1801,19 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1715,6 +1930,19 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2046,1238 +2274,1612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="4"/>
-    <col min="14" max="14" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="11" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2">
+      <c r="B2" s="1">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
         <v>2013</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>2014</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="10">
         <v>2015</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>104</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
         <v>2015</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
         <v>2016</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>201</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <v>2015</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8">
+      <c r="B8" s="1">
         <v>202</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <v>2015</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9">
+      <c r="B9" s="1">
         <v>203</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <v>2016</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10">
+      <c r="B10" s="1">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <v>2016</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11">
+      <c r="B11" s="1">
         <v>301</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>2014</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12">
+      <c r="B12" s="1">
         <v>302</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <v>2014</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13">
+      <c r="B13" s="1">
         <v>303</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <v>2015</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>3</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14">
+      <c r="B14" s="1">
         <v>304</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <v>2015</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>4</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15">
+      <c r="B15" s="1">
         <v>305</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="10">
         <v>2016</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>5</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16">
+      <c r="B16" s="1">
         <v>401</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="10">
         <v>2015</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17">
+      <c r="B17" s="1">
         <v>402</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <v>2016</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18">
+      <c r="B18" s="1">
         <v>403</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="10">
         <v>2016</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19">
+      <c r="B19" s="1">
         <v>501</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
         <v>2014</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20">
+      <c r="B20" s="1">
         <v>502</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
         <v>2015</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21">
+      <c r="B21" s="1">
         <v>503</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
         <v>2016</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22">
+      <c r="B22" s="1">
         <v>504</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
         <v>2017</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23">
+      <c r="B23" s="1">
         <v>601</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="10">
         <v>2014</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24">
+      <c r="B24" s="1">
         <v>602</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="10">
         <v>2015</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>2</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25">
+      <c r="B25" s="1">
         <v>603</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="10">
         <v>2015</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>3</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26">
+      <c r="B26" s="1">
         <v>604</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="10">
         <v>2016</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>4</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27">
+      <c r="B27" s="1">
         <v>605</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
         <v>2017</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28">
+      <c r="B28" s="1">
         <v>701</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
         <v>2014</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29">
+      <c r="B29" s="1">
         <v>702</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
         <v>2015</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>703</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
         <v>2015</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>704</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
         <v>2016</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>4</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32">
+      <c r="B32" s="1">
         <v>705</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="10">
         <v>2017</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>5</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33">
+      <c r="B33" s="1">
         <v>801</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="10">
         <v>2014</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34">
+      <c r="B34" s="1">
         <v>802</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="10">
         <v>2015</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>2</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35">
+      <c r="B35" s="1">
         <v>803</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
         <v>2015</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>3</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36">
+      <c r="B36" s="1">
         <v>804</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="10">
         <v>2016</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>4</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37">
+      <c r="B37" s="1">
         <v>805</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
         <v>2017</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>5</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38">
+      <c r="B38" s="1">
         <v>901</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
         <v>2015</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39">
+      <c r="B39" s="1">
         <v>902</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
         <v>2016</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1001</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
         <v>2016</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>1</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1002</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="10">
         <v>2017</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="11" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="15" customFormat="1">
+      <c r="A3" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42961</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>42962</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>42964</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42964</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3295,203 +3897,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3510,9 +4114,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3527,326 +4137,333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1002</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3865,123 +4482,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4000,728 +4622,733 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>10001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>10002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>10003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>10004</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>10005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>10006</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>10007</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>10008</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>10009</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>10010</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>100001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>100002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>100003</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>100004</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1006</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>1008</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>1101</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>1102</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>1103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>1104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>1106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>1107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>1108</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>1109</v>
       </c>
     </row>
@@ -4740,14 +5367,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4764,748 +5398,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>15.4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>14.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>16.8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>14.3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>14.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>15.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>16.2</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>14.3</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>14.6</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>17.7</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>15.6</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>14.7</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>15.2</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15.1</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>21.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>19.3</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>24.4</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20.2</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20.8</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>25.7</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>27.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>24.8</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>30.3</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>33.6</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>31.5</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>29.1</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>26.2</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>19</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>26.6</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>23.3</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>30.3</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>31.7</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>29.4</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>28.7</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>21.3</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>20.8</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>22.9</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>19.8</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>27.3</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>29.1</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>27.8</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>24.1</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>15.7</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5522,744 +6164,844 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="B2">
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="1">
         <v>41.8</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="1">
         <v>43.8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4">
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="1">
         <v>40.200000000000003</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5">
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
+      <c r="A5" s="1">
         <v>37.6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="1">
         <v>44.4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7">
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
+      <c r="A7" s="1">
         <v>44</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="1">
         <v>42.8</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1">
+      <c r="A9" s="1">
         <v>42.9</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10">
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="1">
         <v>40.9</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="I10" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11">
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1">
+      <c r="A11" s="1">
         <v>44.2</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12">
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="A12" s="1">
         <v>38.799999999999997</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13">
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1">
+      <c r="A13" s="1">
         <v>39.700000000000003</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="1">
         <v>38.5</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1">
+      <c r="A15" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="1">
         <v>42.6</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17">
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1">
+      <c r="A17" s="1">
         <v>43</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="J17" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18">
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1">
+      <c r="A18" s="1">
         <v>48.1</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="I18" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19">
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1">
+      <c r="A19" s="1">
         <v>51.2</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="I19" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20">
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1">
+      <c r="A20" s="1">
         <v>46.1</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="I20" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1">
+      <c r="A21" s="1">
         <v>45.1</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="I21" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22">
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="1">
         <v>46</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="J22" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23">
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1">
+      <c r="A23" s="1">
         <v>44.3</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="I23" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="J23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24">
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1">
+      <c r="A24" s="1">
         <v>55.5</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="J24" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25">
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1">
+      <c r="A25" s="1">
         <v>50.3</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26">
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1">
+      <c r="A26" s="1">
         <v>18.7</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27">
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1">
+      <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28">
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1">
+      <c r="A28" s="1">
         <v>20.8</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="I28" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29">
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1">
+      <c r="A29" s="1">
         <v>24.6</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="I29" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="J29" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30">
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="A30" s="1">
         <v>16.7</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="I30" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31">
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1">
+      <c r="A31" s="1">
         <v>15.1</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="I31" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="J31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32">
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1">
+      <c r="A32" s="1">
         <v>17</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="I32" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="J32" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33">
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1">
+      <c r="A33" s="1">
         <v>15.4</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="I33" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34">
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1">
+      <c r="A34" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="I34" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35">
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1">
+      <c r="A35" s="1">
         <v>12.1</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="I35" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="J35" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36">
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1">
+      <c r="A36" s="1">
         <v>19.5</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="I36" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="J36" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37">
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="A37" s="1">
         <v>19.3</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="I37" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="J37" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38">
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1">
+      <c r="A38" s="1">
         <v>21.1</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="I38" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="J38" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="K38" s="11"/>
+      <c r="L38" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39">
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1">
+      <c r="A39" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="J39" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="K39" s="11"/>
+      <c r="L39" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40">
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1">
+      <c r="A40" s="1">
         <v>13.9</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="I40" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="J40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="K40" s="11"/>
+      <c r="L40" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41">
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1">
+      <c r="A41" s="1">
         <v>11.6</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="I41" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="J41" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="K41" s="11"/>
+      <c r="L41" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42">
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1">
+      <c r="A42" s="1">
         <v>14.6</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="I42" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43">
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1">
+      <c r="A43" s="1">
         <v>11.6</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="J43" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44">
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1">
+      <c r="A44" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="I44" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="J44" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="K44" s="11"/>
+      <c r="L44" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45">
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
+      <c r="A45" s="1">
         <v>18.2</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="J45" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="K45" s="11"/>
+      <c r="L45" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46">
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1">
+      <c r="A46" s="1">
         <v>17.3</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="I46" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="J46" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="K46" s="11"/>
+      <c r="L46" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47">
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1">
+      <c r="A47" s="1">
         <v>14.5</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="J47" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="K47" s="11"/>
+      <c r="L47" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48">
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1">
+      <c r="A48" s="1">
         <v>12.1</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="I48" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="J48" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49">
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1">
+      <c r="A49" s="1">
         <v>10.5</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="I49" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="J49" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="K49" s="11"/>
+      <c r="L49" s="11" t="s">
         <v>362</v>
       </c>
+      <c r="M49" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="5020" windowWidth="30560" windowHeight="19920" tabRatio="669"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="381">
   <si>
     <t>label</t>
   </si>
@@ -1158,6 +1158,18 @@
   </si>
   <si>
     <t>__primary_donor</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Not disaggregated</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1227,6 +1239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1237,7 +1255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1471,8 +1489,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1481,8 +1505,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1599,6 +1624,9 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1715,6 +1743,9 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2046,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3863,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3888,100 +3919,111 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>285</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>303</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3998,10 +4040,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4027,16 +4069,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4044,13 +4086,13 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4058,13 +4100,13 @@
         <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4072,13 +4114,13 @@
         <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4086,13 +4128,13 @@
         <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4100,13 +4142,13 @@
         <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4114,27 +4156,27 @@
         <v>213</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4142,27 +4184,27 @@
         <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4170,27 +4212,27 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4198,13 +4240,13 @@
         <v>205</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4212,13 +4254,13 @@
         <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4226,13 +4268,13 @@
         <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4240,27 +4282,27 @@
         <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4268,13 +4310,13 @@
         <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4282,27 +4324,27 @@
         <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D21">
-        <v>10001</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4310,13 +4352,13 @@
         <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D22">
-        <v>10002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4324,13 +4366,13 @@
         <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23">
-        <v>10003</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4338,13 +4380,13 @@
         <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24">
-        <v>10004</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4352,13 +4394,13 @@
         <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25">
-        <v>10005</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4366,13 +4408,13 @@
         <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26">
-        <v>10006</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4380,13 +4422,13 @@
         <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27">
-        <v>10007</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4394,13 +4436,13 @@
         <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28">
-        <v>10008</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4408,13 +4450,13 @@
         <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29">
-        <v>10009</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4422,27 +4464,27 @@
         <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30">
-        <v>10010</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D31">
-        <v>100001</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4450,13 +4492,13 @@
         <v>211</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32">
-        <v>100002</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4464,13 +4506,13 @@
         <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D33">
-        <v>100003</v>
+        <v>100002</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4478,27 +4520,27 @@
         <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D34">
-        <v>100004</v>
+        <v>100003</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D35">
-        <v>1001</v>
+        <v>100004</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4506,13 +4548,13 @@
         <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4520,13 +4562,13 @@
         <v>284</v>
       </c>
       <c r="B37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D37">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4534,13 +4576,13 @@
         <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4548,13 +4590,13 @@
         <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D39">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4562,13 +4604,13 @@
         <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D40">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4576,13 +4618,13 @@
         <v>284</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D41">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4590,27 +4632,27 @@
         <v>284</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D42">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D43">
-        <v>1101</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4618,13 +4660,13 @@
         <v>285</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D44">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4632,13 +4674,13 @@
         <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D45">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4646,13 +4688,13 @@
         <v>285</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D46">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4660,13 +4702,13 @@
         <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D47">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4674,13 +4716,13 @@
         <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D48">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4688,13 +4730,13 @@
         <v>285</v>
       </c>
       <c r="B49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D49">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4702,13 +4744,13 @@
         <v>285</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D50">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4716,12 +4758,26 @@
         <v>285</v>
       </c>
       <c r="B51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" t="s">
         <v>314</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>315</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>1109</v>
       </c>
     </row>
@@ -4765,7 +4821,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4832,6 +4888,9 @@
       <c r="I2" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
@@ -4959,6 +5018,9 @@
       <c r="I10" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="J10" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L10" s="7" t="s">
         <v>42</v>
       </c>
@@ -5071,6 +5133,9 @@
       <c r="I18" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="J18" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L18" s="7" t="s">
         <v>41</v>
       </c>
@@ -5183,6 +5248,9 @@
       <c r="I26" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="J26" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L26" s="7" t="s">
         <v>47</v>
       </c>
@@ -5295,6 +5363,9 @@
       <c r="I34" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="J34" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L34" s="7" t="s">
         <v>42</v>
       </c>
@@ -5406,6 +5477,9 @@
       </c>
       <c r="I42" s="7" t="s">
         <v>342</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>41</v>
@@ -5525,7 +5599,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5599,6 +5673,9 @@
       <c r="J2" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="K2" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M2" s="7" t="s">
         <v>130</v>
       </c>
@@ -5711,6 +5788,9 @@
       <c r="J10" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="K10" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M10" s="7" t="s">
         <v>133</v>
       </c>
@@ -5823,6 +5903,9 @@
       <c r="J18" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="K18" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M18" s="7" t="s">
         <v>362</v>
       </c>
@@ -5935,6 +6018,9 @@
       <c r="J26" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="K26" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M26" s="7" t="s">
         <v>130</v>
       </c>
@@ -6047,6 +6133,9 @@
       <c r="J34" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="K34" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="M34" s="7" t="s">
         <v>133</v>
       </c>
@@ -6158,6 +6247,9 @@
       </c>
       <c r="J42" s="7" t="s">
         <v>342</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>362</v>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1506,6 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3558,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3572,7 +3573,8 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="9"/>
+    <col min="12" max="12" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3606,10 +3608,10 @@
       <c r="J1" t="s">
         <v>320</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3644,10 +3646,10 @@
       <c r="J2" t="s">
         <v>337</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3714,10 +3716,10 @@
       <c r="J4" t="s">
         <v>337</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4042,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26280" tabRatio="669" activeTab="3"/>
+    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="387">
   <si>
     <t>label</t>
   </si>
@@ -1145,9 +1145,6 @@
     <t>CORE</t>
   </si>
   <si>
-    <t>geo_code</t>
-  </si>
-  <si>
     <t>__type_code (for calculating code)</t>
   </si>
   <si>
@@ -1170,6 +1167,27 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subheading</t>
+  </si>
+  <si>
+    <t>gh_national</t>
+  </si>
+  <si>
+    <t>ke_national</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Household / female questionnaire</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1273,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1508,7 +1544,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1628,6 +1664,15 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1747,6 +1792,15 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2079,11 +2133,12 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" style="6" customWidth="1"/>
@@ -2107,16 +2162,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -2144,6 +2199,10 @@
       </c>
     </row>
     <row r="2" spans="1:15">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A41" si="0">H2&amp;" Round "&amp;I2</f>
+        <v>2013 Round 1</v>
+      </c>
       <c r="B2">
         <v>101</v>
       </c>
@@ -2177,8 +2236,15 @@
       <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 2</v>
+      </c>
       <c r="B3">
         <v>102</v>
       </c>
@@ -2206,8 +2272,15 @@
       <c r="N3" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="O3" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 3</v>
+      </c>
       <c r="B4">
         <v>103</v>
       </c>
@@ -2235,8 +2308,15 @@
       <c r="N4" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="O4" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 4</v>
+      </c>
       <c r="B5">
         <v>104</v>
       </c>
@@ -2264,8 +2344,15 @@
       <c r="N5" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="O5" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 5</v>
+      </c>
       <c r="B6">
         <v>105</v>
       </c>
@@ -2293,8 +2380,15 @@
       <c r="N6" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 1</v>
+      </c>
       <c r="B7">
         <v>201</v>
       </c>
@@ -2324,6 +2418,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 2</v>
+      </c>
       <c r="B8">
         <v>202</v>
       </c>
@@ -2353,6 +2451,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 3</v>
+      </c>
       <c r="B9">
         <v>203</v>
       </c>
@@ -2382,6 +2484,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 4</v>
+      </c>
       <c r="B10">
         <v>204</v>
       </c>
@@ -2411,6 +2517,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 1</v>
+      </c>
       <c r="B11">
         <v>301</v>
       </c>
@@ -2443,6 +2553,10 @@
       </c>
     </row>
     <row r="12" spans="1:15">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 2</v>
+      </c>
       <c r="B12">
         <v>302</v>
       </c>
@@ -2472,6 +2586,10 @@
       </c>
     </row>
     <row r="13" spans="1:15">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 3</v>
+      </c>
       <c r="B13">
         <v>303</v>
       </c>
@@ -2501,6 +2619,10 @@
       </c>
     </row>
     <row r="14" spans="1:15">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 4</v>
+      </c>
       <c r="B14">
         <v>304</v>
       </c>
@@ -2530,6 +2652,10 @@
       </c>
     </row>
     <row r="15" spans="1:15">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 5</v>
+      </c>
       <c r="B15">
         <v>305</v>
       </c>
@@ -2559,6 +2685,10 @@
       </c>
     </row>
     <row r="16" spans="1:15">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 1</v>
+      </c>
       <c r="B16">
         <v>401</v>
       </c>
@@ -2587,7 +2717,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="1:15">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 2</v>
+      </c>
       <c r="B17">
         <v>402</v>
       </c>
@@ -2616,7 +2750,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="1:15">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 3</v>
+      </c>
       <c r="B18">
         <v>403</v>
       </c>
@@ -2645,7 +2783,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="1:15">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 1</v>
+      </c>
       <c r="B19">
         <v>501</v>
       </c>
@@ -2674,7 +2816,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="1:15">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 2</v>
+      </c>
       <c r="B20">
         <v>502</v>
       </c>
@@ -2703,7 +2849,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="1:15">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 3</v>
+      </c>
       <c r="B21">
         <v>503</v>
       </c>
@@ -2732,7 +2882,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="1:15">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>2017 Round 4</v>
+      </c>
       <c r="B22">
         <v>504</v>
       </c>
@@ -2761,7 +2915,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="1:15">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 1</v>
+      </c>
       <c r="B23">
         <v>601</v>
       </c>
@@ -2789,8 +2947,15 @@
       <c r="N23" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="O23" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 2</v>
+      </c>
       <c r="B24">
         <v>602</v>
       </c>
@@ -2818,8 +2983,15 @@
       <c r="N24" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="O24" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 3</v>
+      </c>
       <c r="B25">
         <v>603</v>
       </c>
@@ -2847,8 +3019,15 @@
       <c r="N25" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="O25" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 4</v>
+      </c>
       <c r="B26">
         <v>604</v>
       </c>
@@ -2876,8 +3055,15 @@
       <c r="N26" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="O26" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>2017 Round 5</v>
+      </c>
       <c r="B27">
         <v>605</v>
       </c>
@@ -2905,8 +3091,15 @@
       <c r="N27" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="O27" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 1</v>
+      </c>
       <c r="B28">
         <v>701</v>
       </c>
@@ -2935,7 +3128,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="1:15">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 2</v>
+      </c>
       <c r="B29">
         <v>702</v>
       </c>
@@ -2964,7 +3161,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="1:15">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 3</v>
+      </c>
       <c r="B30">
         <v>703</v>
       </c>
@@ -2993,7 +3194,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="1:15">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 4</v>
+      </c>
       <c r="B31">
         <v>704</v>
       </c>
@@ -3022,7 +3227,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="1:15">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>2017 Round 5</v>
+      </c>
       <c r="B32">
         <v>705</v>
       </c>
@@ -3051,7 +3260,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="1:14">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>2014 Round 1</v>
+      </c>
       <c r="B33">
         <v>801</v>
       </c>
@@ -3080,7 +3293,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="1:14">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 2</v>
+      </c>
       <c r="B34">
         <v>802</v>
       </c>
@@ -3109,7 +3326,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="1:14">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 3</v>
+      </c>
       <c r="B35">
         <v>803</v>
       </c>
@@ -3138,7 +3359,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="1:14">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 4</v>
+      </c>
       <c r="B36">
         <v>804</v>
       </c>
@@ -3167,7 +3392,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="1:14">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>2017 Round 5</v>
+      </c>
       <c r="B37">
         <v>805</v>
       </c>
@@ -3196,7 +3425,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="1:14">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>2015 Round 1</v>
+      </c>
       <c r="B38">
         <v>901</v>
       </c>
@@ -3225,7 +3458,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="1:14">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 2</v>
+      </c>
       <c r="B39">
         <v>902</v>
       </c>
@@ -3254,7 +3491,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="1:14">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>2016 Round 1</v>
+      </c>
       <c r="B40">
         <v>1001</v>
       </c>
@@ -3283,7 +3524,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="1:14">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>2017 Round 2</v>
+      </c>
       <c r="B41">
         <v>1002</v>
       </c>
@@ -3328,7 +3573,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3559,7 +3804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3896,19 +4141,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -3918,19 +4164,31 @@
       <c r="C1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" t="s">
         <v>377</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>378</v>
       </c>
-      <c r="C2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -3940,8 +4198,14 @@
       <c r="C3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>203</v>
       </c>
@@ -3951,8 +4215,14 @@
       <c r="C4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -3962,8 +4232,14 @@
       <c r="C5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -3973,8 +4249,14 @@
       <c r="C6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -3984,8 +4266,14 @@
       <c r="C7" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -3995,8 +4283,14 @@
       <c r="C8" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>211</v>
       </c>
@@ -4006,8 +4300,14 @@
       <c r="C9" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -4017,8 +4317,14 @@
       <c r="C10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -4027,6 +4333,12 @@
       </c>
       <c r="C11" t="s">
         <v>305</v>
+      </c>
+      <c r="D11" s="1">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4071,13 +4383,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4796,18 +5108,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4820,10 +5173,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4833,10 +5186,9 @@
     <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -4873,11 +5225,8 @@
       <c r="L1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>15.4</v>
       </c>
@@ -4891,13 +5240,13 @@
         <v>338</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>14.1</v>
       </c>
@@ -4914,7 +5263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>16.8</v>
       </c>
@@ -4931,7 +5280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>14.3</v>
       </c>
@@ -4948,7 +5297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>14.7</v>
       </c>
@@ -4965,7 +5314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>15.6</v>
       </c>
@@ -4982,7 +5331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>16.2</v>
       </c>
@@ -4996,7 +5345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>14.3</v>
       </c>
@@ -5010,7 +5359,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>16.100000000000001</v>
       </c>
@@ -5021,13 +5370,13 @@
         <v>338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>14.6</v>
       </c>
@@ -5041,7 +5390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>17.7</v>
       </c>
@@ -5055,7 +5404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>15.6</v>
       </c>
@@ -5069,7 +5418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>14.7</v>
       </c>
@@ -5083,7 +5432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>15.2</v>
       </c>
@@ -5097,7 +5446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>19.899999999999999</v>
       </c>
@@ -5136,7 +5485,7 @@
         <v>338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>41</v>
@@ -5251,7 +5600,7 @@
         <v>342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>47</v>
@@ -5366,7 +5715,7 @@
         <v>342</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>42</v>
@@ -5481,7 +5830,7 @@
         <v>342</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>41</v>
@@ -5598,10 +5947,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5618,10 +5967,9 @@
     <col min="10" max="10" width="13.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -5661,11 +6009,8 @@
       <c r="M1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2">
         <v>41.8</v>
       </c>
@@ -5676,13 +6021,13 @@
         <v>338</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="B3">
         <v>43.8</v>
       </c>
@@ -5696,7 +6041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="B4">
         <v>40.200000000000003</v>
       </c>
@@ -5710,7 +6055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="B5">
         <v>37.6</v>
       </c>
@@ -5724,7 +6069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>44.4</v>
       </c>
@@ -5738,7 +6083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>44</v>
       </c>
@@ -5752,7 +6097,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -5766,7 +6111,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>42.9</v>
       </c>
@@ -5780,7 +6125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>40.9</v>
       </c>
@@ -5791,13 +6136,13 @@
         <v>338</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="B11">
         <v>44.2</v>
       </c>
@@ -5811,7 +6156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="B12">
         <v>38.799999999999997</v>
       </c>
@@ -5825,7 +6170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="B13">
         <v>39.700000000000003</v>
       </c>
@@ -5839,7 +6184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="B14">
         <v>38.5</v>
       </c>
@@ -5853,7 +6198,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="B15">
         <v>40.700000000000003</v>
       </c>
@@ -5867,7 +6212,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="B16">
         <v>42.6</v>
       </c>
@@ -5906,7 +6251,7 @@
         <v>338</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>362</v>
@@ -6021,7 +6366,7 @@
         <v>342</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>130</v>
@@ -6136,7 +6481,7 @@
         <v>342</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>133</v>
@@ -6251,7 +6596,7 @@
         <v>342</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>362</v>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="8"/>
+    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="390">
   <si>
     <t>label</t>
   </si>
@@ -1188,6 +1188,15 @@
   </si>
   <si>
     <t>Household / female questionnaire</t>
+  </si>
+  <si>
+    <t>__english</t>
+  </si>
+  <si>
+    <t>__language</t>
+  </si>
+  <si>
+    <t>__value</t>
   </si>
 </sst>
 </file>
@@ -3785,12 +3794,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5949,9 +5972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="387">
   <si>
     <t>label</t>
   </si>
@@ -1188,15 +1188,6 @@
   </si>
   <si>
     <t>Household / female questionnaire</t>
-  </si>
-  <si>
-    <t>__english</t>
-  </si>
-  <si>
-    <t>__language</t>
-  </si>
-  <si>
-    <t>__value</t>
   </si>
 </sst>
 </file>
@@ -3794,26 +3785,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5972,7 +5949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="7920" windowWidth="24560" windowHeight="18300" tabRatio="669" activeTab="8"/>
+    <workbookView xWindow="6500" yWindow="2700" windowWidth="24560" windowHeight="18300" tabRatio="669"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="398">
   <si>
     <t>label</t>
   </si>
@@ -1188,13 +1188,46 @@
   </si>
   <si>
     <t>Household / female questionnaire</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>Kwame Nkruma University of Science and Technology (KNUST)</t>
+  </si>
+  <si>
+    <t>Burkina Faso National Institute of Statistics and Demography</t>
+  </si>
+  <si>
+    <t>Tulane University School of Public Health, University of Kinshasa School of Public Health</t>
+  </si>
+  <si>
+    <t>Niger/Niamey National Institute of Statistics</t>
+  </si>
+  <si>
+    <t>Centre for Research, Evaluation Resources and Development (CRERD), Bayero University Kano (BUK)</t>
+  </si>
+  <si>
+    <t>International Centre for Reproductive Health Kenya (ICRHK)</t>
+  </si>
+  <si>
+    <t>School of Public Health, College of Health Sciences, Makerere University in Kampala</t>
+  </si>
+  <si>
+    <t>Addis Ababa University, School of Public Health</t>
+  </si>
+  <si>
+    <t>National Population and Family Planning Board of Indonesia (BkkbN), Universitas Gadjah Mada (UGM), Universitas Hasanuddin (UNHAS), Universitas Sumatera Utara (USU)</t>
+  </si>
+  <si>
+    <t>IIHMR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1224,6 +1257,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1273,7 +1311,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1531,8 +1569,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1543,8 +1585,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1673,6 +1716,8 @@
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1801,6 +1846,8 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2130,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2151,7 +2198,7 @@
     <col min="15" max="15" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2197,8 +2244,11 @@
       <c r="O1" s="7" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A41" si="0">H2&amp;" Round "&amp;I2</f>
         <v>2013 Round 1</v>
@@ -2239,8 +2289,11 @@
       <c r="O2" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 2</v>
@@ -2275,8 +2328,11 @@
       <c r="O3" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 3</v>
@@ -2311,8 +2367,11 @@
       <c r="O4" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 4</v>
@@ -2347,8 +2406,11 @@
       <c r="O5" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 5</v>
@@ -2383,8 +2445,11 @@
       <c r="O6" s="7" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 1</v>
@@ -2416,8 +2481,11 @@
       <c r="N7" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 2</v>
@@ -2449,8 +2517,11 @@
       <c r="N8" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 3</v>
@@ -2482,8 +2553,11 @@
       <c r="N9" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 4</v>
@@ -2515,8 +2589,11 @@
       <c r="N10" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 1</v>
@@ -2551,8 +2628,11 @@
       <c r="N11" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 2</v>
@@ -2584,8 +2664,11 @@
       <c r="N12" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 3</v>
@@ -2617,8 +2700,11 @@
       <c r="N13" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 4</v>
@@ -2650,8 +2736,11 @@
       <c r="N14" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 5</v>
@@ -2683,8 +2772,11 @@
       <c r="N15" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 1</v>
@@ -2716,8 +2808,11 @@
       <c r="N16" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 2</v>
@@ -2749,8 +2844,11 @@
       <c r="N17" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 3</v>
@@ -2782,8 +2880,11 @@
       <c r="N18" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 1</v>
@@ -2815,8 +2916,11 @@
       <c r="N19" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 2</v>
@@ -2848,8 +2952,11 @@
       <c r="N20" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 3</v>
@@ -2881,8 +2988,11 @@
       <c r="N21" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2017 Round 4</v>
@@ -2914,8 +3024,11 @@
       <c r="N22" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 1</v>
@@ -2950,8 +3063,11 @@
       <c r="O23" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 2</v>
@@ -2986,8 +3102,11 @@
       <c r="O24" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 3</v>
@@ -3022,8 +3141,11 @@
       <c r="O25" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 4</v>
@@ -3058,8 +3180,11 @@
       <c r="O26" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2017 Round 5</v>
@@ -3094,8 +3219,11 @@
       <c r="O27" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 1</v>
@@ -3127,8 +3255,11 @@
       <c r="N28" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 2</v>
@@ -3160,8 +3291,11 @@
       <c r="N29" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 3</v>
@@ -3193,8 +3327,11 @@
       <c r="N30" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 4</v>
@@ -3226,8 +3363,11 @@
       <c r="N31" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2017 Round 5</v>
@@ -3259,8 +3399,11 @@
       <c r="N32" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2014 Round 1</v>
@@ -3292,8 +3435,11 @@
       <c r="N33" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="P33" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 2</v>
@@ -3325,8 +3471,11 @@
       <c r="N34" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="P34" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 3</v>
@@ -3358,8 +3507,11 @@
       <c r="N35" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="P35" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 4</v>
@@ -3391,8 +3543,11 @@
       <c r="N36" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="P36" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2017 Round 5</v>
@@ -3424,8 +3579,11 @@
       <c r="N37" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="P37" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2015 Round 1</v>
@@ -3457,8 +3615,11 @@
       <c r="N38" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="P38" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 2</v>
@@ -3490,8 +3651,11 @@
       <c r="N39" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="P39" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2016 Round 1</v>
@@ -3523,8 +3687,11 @@
       <c r="N40" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="P40" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2017 Round 2</v>
@@ -3555,6 +3722,9 @@
       </c>
       <c r="N41" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +6119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
